--- a/git.xlsx
+++ b/git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoaib\Desktop\Git Course\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoaib\Desktop\Git Course\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3A0FEF-622F-42DE-B8E6-B8BC5C236FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34024BD3-389C-45C2-898F-0BF185E7FA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>git initialise</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t xml:space="preserve">commits only the tracked files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git reset </t>
+  </si>
+  <si>
+    <t>git reset --soft</t>
+  </si>
+  <si>
+    <t>it take you back one commit back</t>
   </si>
 </sst>
 </file>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +500,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoaib\Desktop\Git Course\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34024BD3-389C-45C2-898F-0BF185E7FA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB1971-25D3-4477-BFB9-47AABFE53645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>git initialise</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>it take you back one commit back</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>creating new branch</t>
+  </si>
+  <si>
+    <t>git branch name</t>
+  </si>
+  <si>
+    <t>create and switch</t>
+  </si>
+  <si>
+    <t>git checkout -b name</t>
+  </si>
+  <si>
+    <t>switch to a branch</t>
+  </si>
+  <si>
+    <t>git checkout name</t>
   </si>
 </sst>
 </file>
@@ -106,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +452,7 @@
     <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -438,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -446,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -454,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -462,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -470,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -478,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -489,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -500,7 +530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -511,7 +541,42 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
